--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_20_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_20_8.xlsx
@@ -518,1321 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_6</t>
+          <t>model_20_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9658410121226665</v>
+        <v>0.9694633675857898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.684487741718145</v>
+        <v>0.8323488088780748</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1868407926231774</v>
+        <v>0.9447902291067793</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9929294100821794</v>
+        <v>0.8365649411877543</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9302273867900148</v>
+        <v>0.9088372149141126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2284213092234056</v>
+        <v>0.204198601562087</v>
       </c>
       <c r="H2" t="n">
-        <v>2.109831923931129</v>
+        <v>1.121084286995067</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8180721886069438</v>
+        <v>0.2408040778255268</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08634080537877667</v>
+        <v>1.024663205278795</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4522064969928602</v>
+        <v>0.6327336415521608</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7779763377441106</v>
+        <v>0.447995515388384</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4779344193750913</v>
+        <v>0.451883393766674</v>
       </c>
       <c r="N2" t="n">
-        <v>1.063062746850462</v>
+        <v>1.05637532138008</v>
       </c>
       <c r="O2" t="n">
-        <v>0.498281077068527</v>
+        <v>0.4711210053669021</v>
       </c>
       <c r="P2" t="n">
-        <v>76.95312701545296</v>
+        <v>77.17732444329748</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.0515325355764</v>
+        <v>122.2757299634209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_7</t>
+          <t>model_20_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9671494020971505</v>
+        <v>0.9696949447345391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6844681293171591</v>
+        <v>0.8323348080841494</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2387860497756236</v>
+        <v>0.9453919803700527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9922343496137129</v>
+        <v>0.8380931164116108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9268103726663551</v>
+        <v>0.9097164900467885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2196720994394489</v>
+        <v>0.2026500441020855</v>
       </c>
       <c r="H3" t="n">
-        <v>2.109963072146829</v>
+        <v>1.121177910368514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8538773028822366</v>
+        <v>0.2381794670783976</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09482836883979584</v>
+        <v>1.015082244287412</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4743526646071492</v>
+        <v>0.6266308556829049</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7417350071341491</v>
+        <v>0.4774619461289146</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4686919024684008</v>
+        <v>0.4501666847980707</v>
       </c>
       <c r="N3" t="n">
-        <v>1.060647257666799</v>
+        <v>1.055947794336235</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4886450870824712</v>
+        <v>0.4693312125434279</v>
       </c>
       <c r="P3" t="n">
-        <v>77.03123860311852</v>
+        <v>77.19254941656195</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.1296441232419</v>
+        <v>122.2909549366854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_8</t>
+          <t>model_20_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9680397034816586</v>
+        <v>0.9699429648692576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6841663161440028</v>
+        <v>0.8323112892011546</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2895732328615843</v>
+        <v>0.9460541313141055</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9915747976567771</v>
+        <v>0.8397837534684001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9234883529809769</v>
+        <v>0.9106881191076395</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2137186499817827</v>
+        <v>0.2009915323191959</v>
       </c>
       <c r="H4" t="n">
-        <v>2.111981298225446</v>
+        <v>1.121335181247394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8888841734570879</v>
+        <v>0.2352914158352159</v>
       </c>
       <c r="J4" t="n">
-        <v>0.102882328666749</v>
+        <v>1.004482721772705</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4958831593923327</v>
+        <v>0.6198870688039606</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7089075044265618</v>
+        <v>0.5102353308892884</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4622971446827058</v>
+        <v>0.4483207917542927</v>
       </c>
       <c r="N4" t="n">
-        <v>1.059003624341553</v>
+        <v>1.055489911010601</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4819780912188656</v>
+        <v>0.4674067360112509</v>
       </c>
       <c r="P4" t="n">
-        <v>77.08618969734756</v>
+        <v>77.20898499915131</v>
       </c>
       <c r="Q4" t="n">
-        <v>122.184595217471</v>
+        <v>122.3073905192747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_5</t>
+          <t>model_20_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9639938006976712</v>
+        <v>0.9702071791385323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6841271039778285</v>
+        <v>0.832275415845914</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.134638154221568</v>
+        <v>0.9467816457792381</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9936556479431367</v>
+        <v>0.8416535986204693</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9336874848753484</v>
+        <v>0.9117612252246149</v>
       </c>
       <c r="G5" t="n">
-        <v>0.240773620527976</v>
+        <v>0.199224730283961</v>
       </c>
       <c r="H5" t="n">
-        <v>2.11224351016121</v>
+        <v>1.12157506653907</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7820896651600769</v>
+        <v>0.2321182737075335</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07747252670042076</v>
+        <v>0.9927596463149766</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4297810959302489</v>
+        <v>0.612438960011255</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8179853576134433</v>
+        <v>0.5466693935099981</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4906868864438665</v>
+        <v>0.446345975991675</v>
       </c>
       <c r="N5" t="n">
-        <v>1.066472983327376</v>
+        <v>1.055002130821171</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5115764430616661</v>
+        <v>0.4653478482531864</v>
       </c>
       <c r="P5" t="n">
-        <v>76.84779624170172</v>
+        <v>77.22664358705103</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.9462017618251</v>
+        <v>122.3250491071745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_9</t>
+          <t>model_20_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9686075834948492</v>
+        <v>0.970486560181066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6836599565319847</v>
+        <v>0.8322236059691527</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3385858442972385</v>
+        <v>0.9475804785213955</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9909536361956277</v>
+        <v>0.8437190902314837</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9202968701831414</v>
+        <v>0.9129451038147418</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2099212337187301</v>
+        <v>0.1973565079661058</v>
       </c>
       <c r="H6" t="n">
-        <v>2.115367327282582</v>
+        <v>1.121921519423535</v>
       </c>
       <c r="I6" t="n">
-        <v>0.922667857465696</v>
+        <v>0.2286340683087445</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1104674922032064</v>
+        <v>0.9798099568786982</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5165676255435248</v>
+        <v>0.6042220125937213</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6791792729951013</v>
+        <v>0.5871909111477346</v>
       </c>
       <c r="M6" t="n">
-        <v>0.45817162037683</v>
+        <v>0.4442482503804667</v>
       </c>
       <c r="N6" t="n">
-        <v>1.057955230471048</v>
+        <v>1.054486350434955</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4776769348022761</v>
+        <v>0.4631608181198182</v>
       </c>
       <c r="P6" t="n">
-        <v>77.12204579230739</v>
+        <v>77.24548700128847</v>
       </c>
       <c r="Q6" t="n">
-        <v>122.2204513124308</v>
+        <v>122.3438925214119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_4</t>
+          <t>model_20_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9614554603942697</v>
+        <v>0.9707795880141363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6832630815842593</v>
+        <v>0.8321513220793756</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.08346359362298683</v>
+        <v>0.9484564856313967</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9944068695898676</v>
+        <v>0.8460003249235168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.937116468563713</v>
+        <v>0.9142506715484318</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2577475138248044</v>
+        <v>0.1953970294970956</v>
       </c>
       <c r="H7" t="n">
-        <v>2.118021231885464</v>
+        <v>1.122404882127311</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7468157808698762</v>
+        <v>0.2248132575920971</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06829916454102794</v>
+        <v>0.9655076568182369</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4075573518188686</v>
+        <v>0.595160457205167</v>
       </c>
       <c r="L7" t="n">
-        <v>0.864431723902058</v>
+        <v>0.6322587275659248</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5076884022949553</v>
+        <v>0.4420373621053944</v>
       </c>
       <c r="N7" t="n">
-        <v>1.071159150041348</v>
+        <v>1.053945375973902</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5293017486405253</v>
+        <v>0.4608558077537065</v>
       </c>
       <c r="P7" t="n">
-        <v>76.71154960363229</v>
+        <v>77.26544348330663</v>
       </c>
       <c r="Q7" t="n">
-        <v>121.8099551237557</v>
+        <v>122.36384900343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_10</t>
+          <t>model_20_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9689287219388831</v>
+        <v>0.9710835009329815</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6830106453886327</v>
+        <v>0.8320529875604777</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3854130745241302</v>
+        <v>0.9494153722221598</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9903724197023165</v>
+        <v>0.8485162494695651</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9172592307030889</v>
+        <v>0.915688278327912</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2077737794647689</v>
+        <v>0.1933647624093882</v>
       </c>
       <c r="H8" t="n">
-        <v>2.119709273887981</v>
+        <v>1.12306244550797</v>
       </c>
       <c r="I8" t="n">
-        <v>0.954945189822503</v>
+        <v>0.220630958019173</v>
       </c>
       <c r="J8" t="n">
-        <v>0.117564877388202</v>
+        <v>0.9497339585167304</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5362550106822714</v>
+        <v>0.5851824582679517</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6522576164394615</v>
+        <v>0.6823828198131036</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4558220919007425</v>
+        <v>0.4397326033049951</v>
       </c>
       <c r="N8" t="n">
-        <v>1.057362359497447</v>
+        <v>1.05338430596988</v>
       </c>
       <c r="O8" t="n">
-        <v>0.475227382034767</v>
+        <v>0.4584529305996657</v>
       </c>
       <c r="P8" t="n">
-        <v>77.14261077974513</v>
+        <v>77.28635382627084</v>
       </c>
       <c r="Q8" t="n">
-        <v>122.2410162998686</v>
+        <v>122.3847593463942</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_11</t>
+          <t>model_20_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9690632046780064</v>
+        <v>0.9713945315850522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6822667655550241</v>
+        <v>0.8319215494507695</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4297919169609206</v>
+        <v>0.9504643289262544</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9898316760741752</v>
+        <v>0.8512885418471503</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9143899156055106</v>
+        <v>0.9172699743648173</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2068744927690147</v>
+        <v>0.191284899006827</v>
       </c>
       <c r="H9" t="n">
-        <v>2.124683601760573</v>
+        <v>1.123941372752806</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9855348838958468</v>
+        <v>0.2160558067783365</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1241680379306465</v>
+        <v>0.9323529509518249</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5548514609132466</v>
+        <v>0.5742043788650807</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6278895357124111</v>
+        <v>0.7381424324012754</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4548345773674367</v>
+        <v>0.4373612911619261</v>
       </c>
       <c r="N9" t="n">
-        <v>1.057114083671373</v>
+        <v>1.052810095535288</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4741978269633415</v>
+        <v>0.4559806667893734</v>
       </c>
       <c r="P9" t="n">
-        <v>77.15128596945129</v>
+        <v>77.30798268891118</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.2496914895747</v>
+        <v>122.4063882090346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_3</t>
+          <t>model_20_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.958033271886592</v>
+        <v>0.9717070722804416</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6817404717152032</v>
+        <v>0.8317483582694655</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03511961606933456</v>
+        <v>0.9516093381680326</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9951751204399644</v>
+        <v>0.8543397434997624</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9404109432666126</v>
+        <v>0.9190078202293532</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2806317041333738</v>
+        <v>0.18919493793764</v>
       </c>
       <c r="H10" t="n">
-        <v>2.128202931090815</v>
+        <v>1.125099502979658</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7134929765231621</v>
+        <v>0.2110617108038872</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05891785436730311</v>
+        <v>0.9132233095637483</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3862053800882667</v>
+        <v>0.5621425101838178</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9180328462038156</v>
+        <v>0.8001776214997802</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5297468302249423</v>
+        <v>0.4349654445328272</v>
       </c>
       <c r="N10" t="n">
-        <v>1.077477036517061</v>
+        <v>1.052233097328416</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5522992495147325</v>
+        <v>0.4534828240091877</v>
       </c>
       <c r="P10" t="n">
-        <v>76.54142426152683</v>
+        <v>77.32995475561751</v>
       </c>
       <c r="Q10" t="n">
-        <v>121.6398297816502</v>
+        <v>122.4283602757409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_12</t>
+          <t>model_20_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9690585440633641</v>
+        <v>0.9720135479932586</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6814661672964382</v>
+        <v>0.8315226430618409</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4715744828694108</v>
+        <v>0.9528575101913492</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9893310662382887</v>
+        <v>0.8576935067149514</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9116964726309086</v>
+        <v>0.9209147325728202</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2069056583205888</v>
+        <v>0.1871455334348421</v>
       </c>
       <c r="H11" t="n">
-        <v>2.130037206002153</v>
+        <v>1.126608861612367</v>
       </c>
       <c r="I11" t="n">
-        <v>1.014335002117959</v>
+        <v>0.2056176579092705</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1302811143377568</v>
+        <v>0.8921967453076086</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5723080582278578</v>
+        <v>0.5489072016084395</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6058407302357268</v>
+        <v>0.8692006017615306</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4548688363919745</v>
+        <v>0.4326032055300123</v>
       </c>
       <c r="N11" t="n">
-        <v>1.05712268788302</v>
+        <v>1.051667296012446</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4742335444654798</v>
+        <v>0.451020019601514</v>
       </c>
       <c r="P11" t="n">
-        <v>77.15098469302177</v>
+        <v>77.35173742229529</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.2493902131452</v>
+        <v>122.4501429424187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_13</t>
+          <t>model_20_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9689519728184299</v>
+        <v>0.972303732800085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6806379530204485</v>
+        <v>0.8312310599299091</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5107022340163663</v>
+        <v>0.9542151203168157</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9888697437427157</v>
+        <v>0.8613740832539264</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9091812025452192</v>
+        <v>0.9230036364612081</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2076183007261789</v>
+        <v>0.1852050662954159</v>
       </c>
       <c r="H12" t="n">
-        <v>2.135575478679272</v>
+        <v>1.128558679358212</v>
       </c>
       <c r="I12" t="n">
-        <v>1.041305194931529</v>
+        <v>0.1996962775264062</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1359144428534896</v>
+        <v>0.8691212107123498</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5886098910260271</v>
+        <v>0.534408744119378</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5858913456464554</v>
+        <v>0.9460166218939199</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4556515123712188</v>
+        <v>0.4303545820546308</v>
       </c>
       <c r="N12" t="n">
-        <v>1.057319434796745</v>
+        <v>1.051131570215228</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4750495405815231</v>
+        <v>0.4486756675694932</v>
       </c>
       <c r="P12" t="n">
-        <v>77.14410795557747</v>
+        <v>77.37258320267487</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.2425134757009</v>
+        <v>122.4709887227983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_14</t>
+          <t>model_20_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9687728125335909</v>
+        <v>0.9725639513510621</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6798043257856172</v>
+        <v>0.8308571314431543</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5471695481738439</v>
+        <v>0.9556893413948837</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9884460793780173</v>
+        <v>0.8654070713277894</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9068429212256086</v>
+        <v>0.9252883470947079</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2088163463758544</v>
+        <v>0.1834649836468354</v>
       </c>
       <c r="H13" t="n">
-        <v>2.141149947837089</v>
+        <v>1.131059140870923</v>
       </c>
       <c r="I13" t="n">
-        <v>1.066441587016172</v>
+        <v>0.193266284402513</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1410879181764131</v>
+        <v>0.843836216680788</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6037646337807907</v>
+        <v>0.5185512505416505</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5678494568905571</v>
+        <v>1.031515646412736</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4569642725376399</v>
+        <v>0.4283281261449398</v>
       </c>
       <c r="N13" t="n">
-        <v>1.057650192245678</v>
+        <v>1.050651166736501</v>
       </c>
       <c r="O13" t="n">
-        <v>0.476418187666017</v>
+        <v>0.4465629412363846</v>
       </c>
       <c r="P13" t="n">
-        <v>77.13260027759452</v>
+        <v>77.39146290901954</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.2310057977179</v>
+        <v>122.489868429143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_2</t>
+          <t>model_20_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9534831833663266</v>
+        <v>0.9727765268649007</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6793626821065195</v>
+        <v>0.8303804333025815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007878867806294765</v>
+        <v>0.9572864293347496</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9959496810675195</v>
+        <v>0.8698186083757369</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9434271114739945</v>
+        <v>0.9277826351076985</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3110581670196194</v>
+        <v>0.1820434902069769</v>
       </c>
       <c r="H14" t="n">
-        <v>2.144103221152797</v>
+        <v>1.134246823531926</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6838547436367022</v>
+        <v>0.1863003926347408</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04945949386625906</v>
+        <v>0.8161778934017603</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3666571534037283</v>
+        <v>0.5012391430182506</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9771346843198025</v>
+        <v>1.126696576480719</v>
       </c>
       <c r="M14" t="n">
-        <v>0.557725888783746</v>
+        <v>0.426665548418169</v>
       </c>
       <c r="N14" t="n">
-        <v>1.085877199939089</v>
+        <v>1.05025871963403</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5814694345210202</v>
+        <v>0.4448295841337748</v>
       </c>
       <c r="P14" t="n">
-        <v>76.33555070414765</v>
+        <v>77.40701932653974</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.4339562242711</v>
+        <v>122.5054248466632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_15</t>
+          <t>model_20_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9685437298171762</v>
+        <v>0.9729183547278476</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6789818275303416</v>
+        <v>0.8297757957217379</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5810274848504198</v>
+        <v>0.9590126240752636</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9880582785293534</v>
+        <v>0.874634693609178</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9046771380700137</v>
+        <v>0.9305002036859182</v>
       </c>
       <c r="G15" t="n">
-        <v>0.210348223555349</v>
+        <v>0.1810950866343938</v>
       </c>
       <c r="H15" t="n">
-        <v>2.146649997457373</v>
+        <v>1.138290037819128</v>
       </c>
       <c r="I15" t="n">
-        <v>1.089779372952483</v>
+        <v>0.178771385976831</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1458234548132962</v>
+        <v>0.7859832376892255</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6178013907400035</v>
+        <v>0.4823773118330282</v>
       </c>
       <c r="L15" t="n">
-        <v>0.551542877393939</v>
+        <v>1.232674503970135</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4586373551678374</v>
+        <v>0.4255526837353911</v>
       </c>
       <c r="N15" t="n">
-        <v>1.058073114183675</v>
+        <v>1.049996883579358</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4781624968875405</v>
+        <v>0.4436693424975036</v>
       </c>
       <c r="P15" t="n">
-        <v>77.1179818283324</v>
+        <v>77.41746609027564</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.2163873484558</v>
+        <v>122.5158716103991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_16</t>
+          <t>model_20_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9682825271712325</v>
+        <v>0.9729598589205556</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6781824918931871</v>
+        <v>0.8290121585193289</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6123511734674312</v>
+        <v>0.9608733139841267</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9877043945992847</v>
+        <v>0.8798822617122433</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9026780831731982</v>
+        <v>0.9334549109530962</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2120948868515019</v>
+        <v>0.1808175479066459</v>
       </c>
       <c r="H16" t="n">
-        <v>2.151995158543628</v>
+        <v>1.143396483307863</v>
       </c>
       <c r="I16" t="n">
-        <v>1.111370338363711</v>
+        <v>0.1706557624128494</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1501448231698073</v>
+        <v>0.7530833813702532</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6307575575022368</v>
+        <v>0.4618695718915513</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5368033172804156</v>
+        <v>1.354074235799212</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4605376063379645</v>
+        <v>0.4252264666111999</v>
       </c>
       <c r="N16" t="n">
-        <v>1.058555334453109</v>
+        <v>1.049920260454359</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4801436456840421</v>
+        <v>0.4433292376349731</v>
       </c>
       <c r="P16" t="n">
-        <v>77.10144304991145</v>
+        <v>77.42053355745601</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.1998485700349</v>
+        <v>122.5189390775794</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_17</t>
+          <t>model_20_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9680026053228089</v>
+        <v>0.972863428370104</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6774149153866622</v>
+        <v>0.8280510843968105</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.6412469820130193</v>
+        <v>0.9628734923181201</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9873820345027633</v>
+        <v>0.8855898742953</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9008378163513592</v>
+        <v>0.9366612256889094</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2139667255408316</v>
+        <v>0.1814623794415379</v>
       </c>
       <c r="H17" t="n">
-        <v>2.157127946177124</v>
+        <v>1.149823190390483</v>
       </c>
       <c r="I17" t="n">
-        <v>1.13128780116528</v>
+        <v>0.1619317432508164</v>
       </c>
       <c r="J17" t="n">
-        <v>0.154081245827482</v>
+        <v>0.7172992561871543</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6426845955584365</v>
+        <v>0.4396154997189853</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5234870496660831</v>
+        <v>1.491667223352733</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4625653743427318</v>
+        <v>0.4259840131290585</v>
       </c>
       <c r="N17" t="n">
-        <v>1.059072113250199</v>
+        <v>1.050098286085962</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4822577399708308</v>
+        <v>0.4441190344764344</v>
       </c>
       <c r="P17" t="n">
-        <v>77.08386952835355</v>
+        <v>77.41341384513206</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.182275048477</v>
+        <v>122.5118193652555</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_18</t>
+          <t>model_20_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9677142922301619</v>
+        <v>0.9725813123991845</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6766847883134415</v>
+        <v>0.8268449261798807</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.6678298929266135</v>
+        <v>0.9650164746797538</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9870890612243081</v>
+        <v>0.8917852617992618</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8991482585129112</v>
+        <v>0.940132714145725</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2158946765189219</v>
+        <v>0.1833488902381008</v>
       </c>
       <c r="H18" t="n">
-        <v>2.162010309277678</v>
+        <v>1.157888775940941</v>
       </c>
       <c r="I18" t="n">
-        <v>1.149611017089264</v>
+        <v>0.1525848670902973</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1576588184360322</v>
+        <v>0.6784570049352587</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6536348666811761</v>
+        <v>0.4155209360127781</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5114615902459634</v>
+        <v>1.644401543949432</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4646446777042882</v>
+        <v>0.4281925854543733</v>
       </c>
       <c r="N18" t="n">
-        <v>1.059604383575086</v>
+        <v>1.050619115570736</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4844255635812401</v>
+        <v>0.4464216302980128</v>
       </c>
       <c r="P18" t="n">
-        <v>77.06592919785291</v>
+        <v>77.39272887435919</v>
       </c>
       <c r="Q18" t="n">
-        <v>122.1643347179763</v>
+        <v>122.4911343944826</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_19</t>
+          <t>model_20_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.967425189416055</v>
+        <v>0.9720535659632795</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6759955737453712</v>
+        <v>0.8253348803178688</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6922315348686661</v>
+        <v>0.9673049587913889</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9868232310675631</v>
+        <v>0.8984993780290311</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8976002246229609</v>
+        <v>0.9438842042684676</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2178279083680506</v>
+        <v>0.1868779330850464</v>
       </c>
       <c r="H19" t="n">
-        <v>2.166619090267905</v>
+        <v>1.167986459573335</v>
       </c>
       <c r="I19" t="n">
-        <v>1.166430715867073</v>
+        <v>0.1426033674896837</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1609049393529704</v>
+        <v>0.6363625613892551</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6636679004231387</v>
+        <v>0.3894829644394694</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5006033235069399</v>
+        <v>1.813932036417909</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4667203749227696</v>
+        <v>0.4322938041252111</v>
       </c>
       <c r="N19" t="n">
-        <v>1.060138111847283</v>
+        <v>1.051593416683176</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4865896275275978</v>
+        <v>0.4506974463383612</v>
       </c>
       <c r="P19" t="n">
-        <v>77.04809987819569</v>
+        <v>77.35459927904397</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.1465053983191</v>
+        <v>122.4530047991674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_1</t>
+          <t>model_20_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.947494832736876</v>
+        <v>0.9712048126488483</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6758784980664906</v>
+        <v>0.8234476221710698</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04203855906935949</v>
+        <v>0.9697382552133879</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9967171821536535</v>
+        <v>0.9057639537875541</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9459666367602306</v>
+        <v>0.947929810666864</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3511022952525757</v>
+        <v>0.1925535504067974</v>
       </c>
       <c r="H20" t="n">
-        <v>2.167401975871663</v>
+        <v>1.180606563491005</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6603089626293371</v>
+        <v>0.131990251523148</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04008733925453684</v>
+        <v>0.5908169879008264</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3501981191081734</v>
+        <v>0.3614036197119872</v>
       </c>
       <c r="L20" t="n">
-        <v>1.042320990749138</v>
+        <v>2.002048871291779</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5925388554791793</v>
+        <v>0.4388092414783415</v>
       </c>
       <c r="N20" t="n">
-        <v>1.096932616485768</v>
+        <v>1.053160345879049</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6177644612814539</v>
+        <v>0.457490259348429</v>
       </c>
       <c r="P20" t="n">
-        <v>76.09335531702095</v>
+        <v>77.29476196001772</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.1917608371444</v>
+        <v>122.3931674801411</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_20</t>
+          <t>model_20_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9671410533627669</v>
+        <v>0.9699403297625613</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6753492870779206</v>
+        <v>0.8210917984245669</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7145794779931225</v>
+        <v>0.9723121170234178</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9865823622135925</v>
+        <v>0.9136125299346572</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8961849520432182</v>
+        <v>0.9522833476812791</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2197279274647151</v>
+        <v>0.201009153289807</v>
       </c>
       <c r="H21" t="n">
-        <v>2.170940812189023</v>
+        <v>1.196359967731441</v>
       </c>
       <c r="I21" t="n">
-        <v>1.181834829760294</v>
+        <v>0.1207640426549148</v>
       </c>
       <c r="J21" t="n">
-        <v>0.163846251334601</v>
+        <v>0.5416099985913648</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6728404887229252</v>
+        <v>0.3311870206231398</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4908009269853856</v>
+        <v>2.210706093123479</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4687514559601017</v>
+        <v>0.4483404435134165</v>
       </c>
       <c r="N21" t="n">
-        <v>1.060662670714892</v>
+        <v>1.055494775822964</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4887071758896064</v>
+        <v>0.4674272243864452</v>
       </c>
       <c r="P21" t="n">
-        <v>77.0307303826165</v>
+        <v>77.20880966640932</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.1291359027399</v>
+        <v>122.3072151865327</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_21</t>
+          <t>model_20_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9668657839472491</v>
+        <v>0.9681412210797492</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6747464003426031</v>
+        <v>0.8181528888222952</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7350125933248068</v>
+        <v>0.9750164864385313</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9863643224606862</v>
+        <v>0.9220767056463356</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8948929819030143</v>
+        <v>0.9569559268818203</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2215686553137815</v>
+        <v>0.2130398013359052</v>
       </c>
       <c r="H22" t="n">
-        <v>2.17497231856413</v>
+        <v>1.216012469774266</v>
       </c>
       <c r="I22" t="n">
-        <v>1.195919080557322</v>
+        <v>0.1089686091189657</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1665087912484318</v>
+        <v>0.4885434810534436</v>
       </c>
       <c r="K22" t="n">
-        <v>0.681213935902877</v>
+        <v>0.2987560450862047</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4819601123726675</v>
+        <v>2.442045069783375</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4707107979574948</v>
+        <v>0.4615623482650044</v>
       </c>
       <c r="N22" t="n">
-        <v>1.061170860405079</v>
+        <v>1.058816207237386</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4907499311322257</v>
+        <v>0.4812120129964244</v>
       </c>
       <c r="P22" t="n">
-        <v>77.01404556250715</v>
+        <v>77.0925525399941</v>
       </c>
       <c r="Q22" t="n">
-        <v>122.1124510826306</v>
+        <v>122.1909580601175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_22</t>
+          <t>model_20_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9666022289489179</v>
+        <v>0.9656569250147636</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6741865443407331</v>
+        <v>0.8144869273594022</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7536619911643829</v>
+        <v>0.9778297438702191</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9861671882060421</v>
+        <v>0.9311805771004109</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8937155653274329</v>
+        <v>0.9619516383156923</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2233310488011815</v>
+        <v>0.2296523005615957</v>
       </c>
       <c r="H23" t="n">
-        <v>2.178716078226534</v>
+        <v>1.240526770956833</v>
       </c>
       <c r="I23" t="n">
-        <v>1.208773840691665</v>
+        <v>0.09669824735938465</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1689160487066541</v>
+        <v>0.4314663632528164</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6888449446991594</v>
+        <v>0.2640823053061006</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4739796480093654</v>
+        <v>2.698435367320122</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4725791455419732</v>
+        <v>0.4792205135024957</v>
       </c>
       <c r="N23" t="n">
-        <v>1.061657423478921</v>
+        <v>1.063402599972744</v>
       </c>
       <c r="O23" t="n">
-        <v>0.492697818141388</v>
+        <v>0.4996219228855169</v>
       </c>
       <c r="P23" t="n">
-        <v>76.99820016913199</v>
+        <v>76.94237770114897</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.0966056892554</v>
+        <v>122.0407832212724</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_23</t>
+          <t>model_20_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.966352200928247</v>
+        <v>0.96229556264994</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6736686996149236</v>
+        <v>0.8099120576198972</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.7706626001976222</v>
+        <v>0.9807119881456386</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9859891519725666</v>
+        <v>0.9409244089039523</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8926437974777358</v>
+        <v>0.9672580643025716</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2250029873266808</v>
+        <v>0.2521297461728214</v>
       </c>
       <c r="H24" t="n">
-        <v>2.182178908292478</v>
+        <v>1.271118945970241</v>
       </c>
       <c r="I24" t="n">
-        <v>1.220492114554441</v>
+        <v>0.08412699115633587</v>
       </c>
       <c r="J24" t="n">
-        <v>0.171090095280355</v>
+        <v>0.3703769862239625</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6957912286722483</v>
+        <v>0.2272519886901492</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4667789411410093</v>
+        <v>2.982465559406598</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4743447979336137</v>
+        <v>0.5021252295720874</v>
       </c>
       <c r="N24" t="n">
-        <v>1.062119013670929</v>
+        <v>1.06960819203088</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4945386380107449</v>
+        <v>0.5235017401374897</v>
       </c>
       <c r="P24" t="n">
-        <v>76.98328319971677</v>
+        <v>76.75562291640691</v>
       </c>
       <c r="Q24" t="n">
-        <v>122.0816887198402</v>
+        <v>121.8540284365303</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_24</t>
+          <t>model_20_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9661167560628691</v>
+        <v>0.9578101045647504</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6731911857593043</v>
+        <v>0.804197913177441</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7861344658447778</v>
+        <v>0.9835905341202146</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9858283528742708</v>
+        <v>0.9512582412041435</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8916696230494188</v>
+        <v>0.9728298023326974</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2265774082255874</v>
+        <v>0.2821240250421201</v>
       </c>
       <c r="H25" t="n">
-        <v>2.185372045643754</v>
+        <v>1.309329456168161</v>
       </c>
       <c r="I25" t="n">
-        <v>1.231156647717163</v>
+        <v>0.07157186553868466</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1730536547304724</v>
+        <v>0.3055885754357259</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7021049954271713</v>
+        <v>0.1885802204872053</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4602861577778106</v>
+        <v>3.296993236310834</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4760014792262597</v>
+        <v>0.5311534853901649</v>
       </c>
       <c r="N25" t="n">
-        <v>1.062553681114703</v>
+        <v>1.077889037726615</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4962658476558219</v>
+        <v>0.5537657889025163</v>
       </c>
       <c r="P25" t="n">
-        <v>76.96933726854941</v>
+        <v>76.53081699923209</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.0677427886728</v>
+        <v>121.6292225193555</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9396727960359271</v>
+        <v>0.9518788541223563</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6709632540240582</v>
+        <v>0.7970527562880672</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06253883755147549</v>
+        <v>0.9863406646602374</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9974608841110989</v>
+        <v>0.9620357633803032</v>
       </c>
       <c r="F26" t="n">
-        <v>0.947757363248583</v>
+        <v>0.97856158424902</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4034082906889877</v>
+        <v>0.3217863240613063</v>
       </c>
       <c r="H26" t="n">
-        <v>2.200270235416027</v>
+        <v>1.357109153187826</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6461784172443495</v>
+        <v>0.05957683933452147</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03100580196925712</v>
+        <v>0.2380184316841721</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3385921591890136</v>
+        <v>0.1487976355093468</v>
       </c>
       <c r="L26" t="n">
-        <v>1.114263464406676</v>
+        <v>3.64524154614219</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6351443069799081</v>
+        <v>0.567262129937568</v>
       </c>
       <c r="N26" t="n">
-        <v>1.111373299625981</v>
+        <v>1.088839038543342</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6621837150580118</v>
+        <v>0.591411653203501</v>
       </c>
       <c r="P26" t="n">
-        <v>75.81561220328601</v>
+        <v>76.26773508716532</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.9140177234094</v>
+        <v>121.3661406072887</v>
       </c>
     </row>
   </sheetData>
